--- a/biology/Botanique/Dypsis_sahanofensis/Dypsis_sahanofensis.xlsx
+++ b/biology/Botanique/Dypsis_sahanofensis/Dypsis_sahanofensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dypsis sahanofensis est une espèce de plantes de la famille des Arécacées. Ce palmier est endémique de Madagascar où il est en danger critique d'extinction selon l'UICN.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1913 par Henri Lucien Jumelle (1866-1935) et Henri Perrier de La Bâthie (1825-1916) sous le basionyme de Neophloga sahanofensis Jum. &amp; H.Perrier, puis recomposée dans le genre Dypsis en 1995 par Henk Jaap Beentje (1951-) et John Dransfield (1945-)[3].
-Son épithète spécifique, sahanofensis, signifie « de Sahanofo », une localité du canton de Ranohira à Madagascar[4].
-Publication originale : Palms Madagascar 290 (1995)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1913 par Henri Lucien Jumelle (1866-1935) et Henri Perrier de La Bâthie (1825-1916) sous le basionyme de Neophloga sahanofensis Jum. &amp; H.Perrier, puis recomposée dans le genre Dypsis en 1995 par Henk Jaap Beentje (1951-) et John Dransfield (1945-).
+Son épithète spécifique, sahanofensis, signifie « de Sahanofo », une localité du canton de Ranohira à Madagascar.
+Publication originale : Palms Madagascar 290 (1995).
 Dans la classification phylogénétique le genre Dypsis est rattaché à la famille des Arecaceae (Palmae dans la classification classique).
 </t>
         </is>
